--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/44_Karaman_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/44_Karaman_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D06700B-B8FB-49B9-B66D-DF81388898AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBF4A98-BD9A-4683-B4E2-3DDCFE81E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{4E7A1E19-FDE3-461F-BC3A-5676430397E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{4FCCF814-5497-4FD9-8F12-9143F3D9D792}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -806,14 +806,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8B07C7FB-A57D-4310-810F-BD2B06E23725}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{306F84F4-9C2D-4444-B928-DAE0F0632FD5}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{CBF4D4CA-D6B8-4244-845B-20F48925F02E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{83F9A948-366B-4451-8E47-B664A785ED01}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F9248611-2C3F-4E94-A316-EA3B668C9589}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A1E749D5-3609-42CB-A1F9-22776E924F54}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5D60CF2B-E457-4DDC-B05E-DF0168329D3C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{13632571-AD48-4D4B-9466-855BDD1920B2}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4DC572B7-CBF7-4BE0-8E3D-0417521F9321}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7065B23D-9EAC-482E-A699-AF0447562CDF}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{81164328-7FF1-4B5A-92FE-675E61DC10CF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3E3CC515-D7CC-42E9-B1C6-3E127F0B4775}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AAB9F2C5-4F3F-4227-AF71-529CC9B8F834}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E8996B87-EDAF-4CEA-9EF0-011328F4BD27}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{543DF40F-A59D-42C6-AA14-FCA3E74EC4BF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{252BEF85-559D-43A1-B75E-20CB4901A07B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1183,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CBC1AA-1E4D-486D-8055-1ED59C98E4AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0578AA-04C0-489E-A141-10F95D54A2A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2458,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4EA981-39CB-4C2B-9F69-0FD123413FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2687D04-030D-456D-B7C6-562899ED6A20}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3733,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE407108-C9C2-40AA-91CF-BF677B56AB35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E38EB-3D29-4379-A479-4F48888A50A8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5004,7 +5004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2469731-0197-405A-B5F9-8FCE837A4C86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A85621-518D-4DF3-80A3-6998C5BC98DB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6275,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA21EDB2-CDEC-49CB-80A8-7C0BED708A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CF21AD-1AC9-411E-B412-A475EB353119}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7536,7 +7536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F7A566-4A2A-47B8-B693-219B7539D3E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C6EA1-CC9B-428F-9F8F-3780C1D24847}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
